--- a/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.7748972392212</v>
+        <v>90.2110941103965</v>
       </c>
       <c r="D2" t="n">
-        <v>1.606006501447529</v>
+        <v>1.452399757909077</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.05284641839208</v>
+        <v>88.98061013945753</v>
       </c>
       <c r="D3" t="n">
-        <v>1.285051110959392</v>
+        <v>1.458430295118012</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.2877513224898</v>
+        <v>88.03984422324112</v>
       </c>
       <c r="D4" t="n">
-        <v>1.421676162147409</v>
+        <v>1.647714757832679</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.67860895972339</v>
+        <v>86.90920761224241</v>
       </c>
       <c r="D5" t="n">
-        <v>1.527908448951017</v>
+        <v>1.57913382472437</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.83806641068485</v>
+        <v>86.36686006819659</v>
       </c>
       <c r="D6" t="n">
-        <v>1.386338830467807</v>
+        <v>1.416468202751237</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.87845586088213</v>
+        <v>85.18156206406097</v>
       </c>
       <c r="D7" t="n">
-        <v>1.493897099750631</v>
+        <v>1.705130920692765</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.05327163362561</v>
+        <v>84.01640465614466</v>
       </c>
       <c r="D8" t="n">
-        <v>1.346005150916897</v>
+        <v>1.550371800841683</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.00654983551591</v>
+        <v>83.1547568538514</v>
       </c>
       <c r="D9" t="n">
-        <v>1.513467688050062</v>
+        <v>3.070386446375939</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.31834078840321</v>
+        <v>81.89367524777022</v>
       </c>
       <c r="D10" t="n">
-        <v>1.606747039219482</v>
+        <v>1.480200553531516</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.88373904987458</v>
+        <v>80.88871124822492</v>
       </c>
       <c r="D11" t="n">
-        <v>1.732651242827311</v>
+        <v>1.228265559353409</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.15241666277164</v>
+        <v>79.82461253936765</v>
       </c>
       <c r="D12" t="n">
-        <v>1.387289470674365</v>
+        <v>1.473562814823603</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.11077627245996</v>
+        <v>78.66193606192823</v>
       </c>
       <c r="D13" t="n">
-        <v>1.507652293873127</v>
+        <v>1.313188937192484</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.03535422840289</v>
+        <v>77.97487136387545</v>
       </c>
       <c r="D14" t="n">
-        <v>1.30967782828868</v>
+        <v>1.561642888777645</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.8609071550944</v>
+        <v>77.15063116401583</v>
       </c>
       <c r="D15" t="n">
-        <v>1.738888442999308</v>
+        <v>1.387591127871024</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.03695212381334</v>
+        <v>76.32446619151482</v>
       </c>
       <c r="D16" t="n">
-        <v>1.477013990887321</v>
+        <v>3.357961872373073</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.84958798134129</v>
+        <v>75.39106823212677</v>
       </c>
       <c r="D17" t="n">
-        <v>1.507712742817992</v>
+        <v>3.414775027538086</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.1553060820755</v>
+        <v>73.81550791458874</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5349620233424</v>
+        <v>1.420577141542394</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.86924787357182</v>
+        <v>72.98032481591736</v>
       </c>
       <c r="D19" t="n">
-        <v>1.540112875731938</v>
+        <v>1.588901495550192</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.99926348827903</v>
+        <v>71.80141495079394</v>
       </c>
       <c r="D20" t="n">
-        <v>1.413653193271684</v>
+        <v>1.406086051632779</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.99784243682251</v>
+        <v>71.03298549211451</v>
       </c>
       <c r="D21" t="n">
-        <v>1.470360508474702</v>
+        <v>1.576321446056787</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.99043770745079</v>
+        <v>69.77068647690956</v>
       </c>
       <c r="D22" t="n">
-        <v>1.524134812033012</v>
+        <v>1.68357033905207</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.00204117342389</v>
+        <v>68.98938177073224</v>
       </c>
       <c r="D23" t="n">
-        <v>1.467159796105226</v>
+        <v>1.61842406466154</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.70373778020469</v>
+        <v>67.56093134986858</v>
       </c>
       <c r="D24" t="n">
-        <v>1.622186975706372</v>
+        <v>1.550188594348723</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.82272504349858</v>
+        <v>67.02944560715561</v>
       </c>
       <c r="D25" t="n">
-        <v>1.348108636994807</v>
+        <v>1.440804717819117</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.06535026970143</v>
+        <v>65.86738678922077</v>
       </c>
       <c r="D26" t="n">
-        <v>1.569984131351385</v>
+        <v>1.609868297995592</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.04984350997519</v>
+        <v>64.86143716648019</v>
       </c>
       <c r="D27" t="n">
-        <v>1.51110336412332</v>
+        <v>1.500241290580095</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.17841942640263</v>
+        <v>63.84292204392497</v>
       </c>
       <c r="D28" t="n">
-        <v>1.525892748061427</v>
+        <v>1.606117986840927</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.00559229360075</v>
+        <v>62.77100833054709</v>
       </c>
       <c r="D29" t="n">
-        <v>1.482347193995813</v>
+        <v>1.556193455964262</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.32773884890548</v>
+        <v>62.01387459036849</v>
       </c>
       <c r="D30" t="n">
-        <v>1.679024893836698</v>
+        <v>1.350823334622952</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.83881963165044</v>
+        <v>61.26566056703727</v>
       </c>
       <c r="D31" t="n">
-        <v>1.29373301505861</v>
+        <v>1.483109982904601</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.04967795251921</v>
+        <v>60.10113812916364</v>
       </c>
       <c r="D32" t="n">
-        <v>1.633489089618156</v>
+        <v>1.570654484312152</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.08163153497757</v>
+        <v>58.96520573675974</v>
       </c>
       <c r="D33" t="n">
-        <v>1.491922590550406</v>
+        <v>1.641880524248353</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.02957100253243</v>
+        <v>57.88919552395228</v>
       </c>
       <c r="D34" t="n">
-        <v>1.611985433515573</v>
+        <v>1.543926461264246</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.0527940503515</v>
+        <v>57.02421106389508</v>
       </c>
       <c r="D35" t="n">
-        <v>1.448753671196632</v>
+        <v>1.395469332767521</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.86740298185757</v>
+        <v>56.16045784994269</v>
       </c>
       <c r="D36" t="n">
-        <v>1.438871658735792</v>
+        <v>1.387037176600375</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.89678820221735</v>
+        <v>54.82989457843706</v>
       </c>
       <c r="D37" t="n">
-        <v>1.442840066029998</v>
+        <v>1.571315168007019</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.62612654829889</v>
+        <v>54.03533592352412</v>
       </c>
       <c r="D38" t="n">
-        <v>1.421937355822969</v>
+        <v>1.440101906165145</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.87806922911793</v>
+        <v>52.83201878858329</v>
       </c>
       <c r="D39" t="n">
-        <v>1.529467963631476</v>
+        <v>1.441089243177092</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.96153376489045</v>
+        <v>52.04764118392111</v>
       </c>
       <c r="D40" t="n">
-        <v>1.414924365704806</v>
+        <v>1.634279339741111</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.08604574065192</v>
+        <v>50.74287219230818</v>
       </c>
       <c r="D41" t="n">
-        <v>1.544504201774153</v>
+        <v>1.588298078093209</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.84509810411067</v>
+        <v>49.93769444406397</v>
       </c>
       <c r="D42" t="n">
-        <v>1.472339126671051</v>
+        <v>1.565851280085329</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.17036858856676</v>
+        <v>48.80213786261162</v>
       </c>
       <c r="D43" t="n">
-        <v>1.447538135401587</v>
+        <v>1.400245157154816</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.87367318555767</v>
+        <v>47.77226578333995</v>
       </c>
       <c r="D44" t="n">
-        <v>1.553809837133615</v>
+        <v>1.471799561033356</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.86330402892248</v>
+        <v>46.88893155588654</v>
       </c>
       <c r="D45" t="n">
-        <v>1.750667314890694</v>
+        <v>1.477587789368883</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.8965354475002</v>
+        <v>46.35629909762584</v>
       </c>
       <c r="D46" t="n">
-        <v>1.372239021820007</v>
+        <v>4.586789151652287</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.14991965993652</v>
+        <v>44.88211030018875</v>
       </c>
       <c r="D47" t="n">
-        <v>1.525896399811056</v>
+        <v>1.606639490011585</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.79822989766538</v>
+        <v>44.01444932980359</v>
       </c>
       <c r="D48" t="n">
-        <v>1.487487131942315</v>
+        <v>1.519379304600595</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.31804226791464</v>
+        <v>42.74854643455497</v>
       </c>
       <c r="D49" t="n">
-        <v>1.572958422093325</v>
+        <v>1.451899136618563</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.87145702096301</v>
+        <v>41.89135880875088</v>
       </c>
       <c r="D50" t="n">
-        <v>1.347882800457852</v>
+        <v>1.40853535066723</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.73281065310032</v>
+        <v>40.73795776099001</v>
       </c>
       <c r="D51" t="n">
-        <v>1.585682263367037</v>
+        <v>1.625954599611462</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.92839028321747</v>
+        <v>40.01273062626926</v>
       </c>
       <c r="D52" t="n">
-        <v>1.439742283762853</v>
+        <v>1.432914502673291</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.05488423205136</v>
+        <v>39.50915046633899</v>
       </c>
       <c r="D53" t="n">
-        <v>1.395103432326028</v>
+        <v>4.806884393430728</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.01710847911827</v>
+        <v>38.0427315985017</v>
       </c>
       <c r="D54" t="n">
-        <v>1.494416691350311</v>
+        <v>1.309077732241905</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.1415142877668</v>
+        <v>36.87298617026027</v>
       </c>
       <c r="D55" t="n">
-        <v>1.58246953361045</v>
+        <v>1.452833733640073</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.6542916022094</v>
+        <v>36.15017366706714</v>
       </c>
       <c r="D56" t="n">
-        <v>1.560523805714671</v>
+        <v>1.56960708383527</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.53415452442987</v>
+        <v>34.95406751911752</v>
       </c>
       <c r="D57" t="n">
-        <v>1.535386731699507</v>
+        <v>1.490369047515407</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.97919099570368</v>
+        <v>34.17666824911051</v>
       </c>
       <c r="D58" t="n">
-        <v>1.437002105080135</v>
+        <v>1.38392422130232</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.00518357008985</v>
+        <v>32.89813840039285</v>
       </c>
       <c r="D59" t="n">
-        <v>1.373373366628976</v>
+        <v>1.517327325349424</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.14793992966727</v>
+        <v>31.97139198416479</v>
       </c>
       <c r="D60" t="n">
-        <v>1.515928685876454</v>
+        <v>1.404244381867497</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.81318378474863</v>
+        <v>31.41948850922499</v>
       </c>
       <c r="D61" t="n">
-        <v>1.680414611413741</v>
+        <v>1.462310877592844</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.91319679771279</v>
+        <v>30.09805439100486</v>
       </c>
       <c r="D62" t="n">
-        <v>1.450254494291234</v>
+        <v>1.513511136869616</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.96830619671278</v>
+        <v>29.1052297583178</v>
       </c>
       <c r="D63" t="n">
-        <v>1.461245331563348</v>
+        <v>1.314851093330535</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.97143003455858</v>
+        <v>28.16003584505497</v>
       </c>
       <c r="D64" t="n">
-        <v>1.409701005964693</v>
+        <v>1.665774091942712</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.97448715301909</v>
+        <v>26.83424504722687</v>
       </c>
       <c r="D65" t="n">
-        <v>1.531982808494305</v>
+        <v>1.374184710139554</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.13430903669418</v>
+        <v>25.75699264533516</v>
       </c>
       <c r="D66" t="n">
-        <v>1.350976042234985</v>
+        <v>1.579765969487525</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.99851067627605</v>
+        <v>25.0328679552144</v>
       </c>
       <c r="D67" t="n">
-        <v>1.425254890998031</v>
+        <v>1.575559366888279</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.0402973746502</v>
+        <v>24.45743248098895</v>
       </c>
       <c r="D68" t="n">
-        <v>1.29420741235682</v>
+        <v>5.495266186550753</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.87720913055687</v>
+        <v>22.98850383320023</v>
       </c>
       <c r="D69" t="n">
-        <v>1.439872375236801</v>
+        <v>1.560752094445847</v>
       </c>
     </row>
   </sheetData>
